--- a/Assets/StreamingAssets/levels/Level3.xlsx
+++ b/Assets/StreamingAssets/levels/Level3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LBstudio\Documents\GitHub\Project\Assets\StreamingAssets\levels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A18E90-E96E-4E39-A05C-F7D9D456B8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBB9F65-CD5D-401B-86D2-773D6D33A52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15936" yWindow="3948" windowWidth="16452" windowHeight="12132" xr2:uid="{C2226A68-D7B0-4D43-ABB2-DEB1751B0BE9}"/>
+    <workbookView xWindow="13272" yWindow="2400" windowWidth="16452" windowHeight="12132" activeTab="1" xr2:uid="{C2226A68-D7B0-4D43-ABB2-DEB1751B0BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Prop" sheetId="1" r:id="rId1"/>
@@ -416,7 +416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36E9A83-1242-0D41-9838-6F50983CC2CF}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -464,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AEF038-7884-4C45-8363-3DD22CC55CD7}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.6328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -484,7 +484,7 @@
         <v>8</v>
       </c>
       <c r="E1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F1">
         <v>15</v>
@@ -534,7 +534,7 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>15</v>
@@ -552,12 +552,6 @@
         <v>15</v>
       </c>
       <c r="K2">
-        <v>9</v>
-      </c>
-      <c r="L2">
-        <v>9</v>
-      </c>
-      <c r="M2">
         <v>9</v>
       </c>
       <c r="N2">
@@ -581,10 +575,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>9</v>
@@ -598,20 +592,17 @@
       <c r="I3">
         <v>9</v>
       </c>
-      <c r="J3">
-        <v>9</v>
-      </c>
       <c r="K3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="O3">
         <v>15</v>
@@ -621,8 +612,14 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
       <c r="E4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4">
         <v>9</v>
@@ -636,11 +633,17 @@
       <c r="I4">
         <v>9</v>
       </c>
-      <c r="J4">
-        <v>9</v>
-      </c>
       <c r="K4">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
       </c>
       <c r="O4">
         <v>15</v>
@@ -656,6 +659,9 @@
       <c r="C5">
         <v>0</v>
       </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
       <c r="E5">
         <v>9</v>
       </c>
@@ -676,6 +682,12 @@
       </c>
       <c r="K5">
         <v>9</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
       </c>
       <c r="O5">
         <v>15</v>
@@ -709,6 +721,12 @@
       <c r="K6">
         <v>9</v>
       </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
       <c r="O6">
         <v>15</v>
       </c>
@@ -749,6 +767,12 @@
       </c>
       <c r="K7">
         <v>9</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
       </c>
       <c r="O7">
         <v>15</v>
